--- a/primer_parte/parcial1.xlsx
+++ b/primer_parte/parcial1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\primer_parte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EE0E68-4C74-49AB-ABC1-AEBE0BAC32D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A4454-F298-4C26-9AA5-22F8AFB1A667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44010" yWindow="0" windowWidth="13695" windowHeight="15585" xr2:uid="{32691F52-6FA0-4199-A9B5-B2C95891D60A}"/>
+    <workbookView xWindow="804" yWindow="1284" windowWidth="17280" windowHeight="9960" xr2:uid="{32691F52-6FA0-4199-A9B5-B2C95891D60A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="jacobi parcial" sheetId="1" r:id="rId1"/>
     <sheet name="newton raphson" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I15" sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
